--- a/docs/admin/Relatorio_Gastos_StyleSheets.xlsx
+++ b/docs/admin/Relatorio_Gastos_StyleSheets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>DATA</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>CERTIFICADO DIGITAL</t>
+  </si>
+  <si>
+    <t>REGISTRO STYLESHEETS</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="F6:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +544,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="9">
         <f>SUM(D3:D28)</f>
-        <v>736.53</v>
+        <v>766.53</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -558,9 +561,15 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="8">
+        <v>42442</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>30</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
     </row>
